--- a/Sasha/r_calc_snailmovent/Data/snail_movement_2023_lenght.xlsx
+++ b/Sasha/r_calc_snailmovent/Data/snail_movement_2023_lenght.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Text\Paper_2023\Sasha\Таблица\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Text\Paper_2023\Sasha\r_calc_snailmovent\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7618" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7618" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,13 @@
   <si>
     <t>Barbar</t>
   </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T
+</t>
+  </si>
 </sst>
 </file>
 
@@ -143,10 +150,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -429,13 +439,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A632" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -465,8 +476,8 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -482,8 +493,8 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -499,8 +510,8 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E4">
         <v>214</v>
@@ -516,8 +527,8 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E5">
         <v>273</v>
@@ -533,8 +544,8 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E6">
         <v>300</v>
@@ -550,8 +561,8 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>3</v>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E7">
         <v>300</v>
@@ -567,8 +578,8 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E8">
         <v>38</v>
@@ -584,8 +595,8 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>3</v>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E9">
         <v>300</v>
@@ -601,8 +612,8 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>3</v>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E10">
         <v>192</v>
@@ -618,8 +629,8 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>3</v>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E11">
         <v>192</v>
@@ -635,8 +646,8 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>3</v>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E12">
         <v>300</v>
@@ -652,8 +663,8 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
-        <v>3</v>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E13">
         <v>300</v>
@@ -669,8 +680,8 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>3</v>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E14">
         <v>300</v>
@@ -686,8 +697,8 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
-        <v>3</v>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E15">
         <v>300</v>
@@ -703,8 +714,8 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
-        <v>3</v>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E16">
         <v>300</v>
@@ -720,8 +731,8 @@
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
-        <v>3</v>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E17">
         <v>30</v>
@@ -737,8 +748,8 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" t="s">
-        <v>3</v>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E18">
         <v>300</v>
@@ -754,8 +765,8 @@
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
-        <v>3</v>
+      <c r="D19" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E19">
         <v>300</v>
@@ -771,8 +782,8 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
-        <v>3</v>
+      <c r="D20" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E20">
         <v>300</v>
@@ -788,8 +799,8 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
-        <v>3</v>
+      <c r="D21" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E21">
         <v>300</v>
@@ -805,8 +816,8 @@
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" t="s">
-        <v>3</v>
+      <c r="D22" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E22">
         <v>202</v>
@@ -822,8 +833,8 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" t="s">
-        <v>3</v>
+      <c r="D23" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E23">
         <v>13</v>
@@ -839,8 +850,8 @@
       <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24" t="s">
-        <v>3</v>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E24">
         <v>57</v>
@@ -856,8 +867,8 @@
       <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
-        <v>3</v>
+      <c r="D25" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E25">
         <v>9</v>
@@ -873,8 +884,8 @@
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" t="s">
-        <v>3</v>
+      <c r="D26" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E26">
         <v>98</v>
@@ -890,8 +901,8 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" t="s">
-        <v>3</v>
+      <c r="D27" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E27">
         <v>46</v>
@@ -907,8 +918,8 @@
       <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="D28" t="s">
-        <v>3</v>
+      <c r="D28" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E28">
         <v>43</v>
@@ -924,8 +935,8 @@
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" t="s">
-        <v>3</v>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E29">
         <v>33</v>
@@ -941,8 +952,8 @@
       <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="D30" t="s">
-        <v>3</v>
+      <c r="D30" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E30">
         <v>35</v>
@@ -958,8 +969,8 @@
       <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D31" t="s">
-        <v>3</v>
+      <c r="D31" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E31">
         <v>7</v>
@@ -975,8 +986,8 @@
       <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D32" t="s">
-        <v>3</v>
+      <c r="D32" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E32">
         <v>36</v>
@@ -992,8 +1003,8 @@
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" t="s">
-        <v>3</v>
+      <c r="D33" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E33">
         <v>300</v>
@@ -1009,8 +1020,8 @@
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" t="s">
-        <v>3</v>
+      <c r="D34" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -1026,8 +1037,8 @@
       <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="D35" t="s">
-        <v>3</v>
+      <c r="D35" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E35">
         <v>27</v>
@@ -1043,8 +1054,8 @@
       <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="D36" t="s">
-        <v>3</v>
+      <c r="D36" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E36">
         <v>30</v>
@@ -1060,8 +1071,8 @@
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" t="s">
-        <v>3</v>
+      <c r="D37" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E37">
         <v>226</v>
@@ -1077,8 +1088,8 @@
       <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38" t="s">
-        <v>3</v>
+      <c r="D38" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E38">
         <v>12</v>
@@ -1094,8 +1105,8 @@
       <c r="C39" t="s">
         <v>12</v>
       </c>
-      <c r="D39" t="s">
-        <v>3</v>
+      <c r="D39" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E39">
         <v>50</v>
@@ -1111,8 +1122,8 @@
       <c r="C40" t="s">
         <v>12</v>
       </c>
-      <c r="D40" t="s">
-        <v>3</v>
+      <c r="D40" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E40">
         <v>92</v>
@@ -1128,8 +1139,8 @@
       <c r="C41" t="s">
         <v>12</v>
       </c>
-      <c r="D41" t="s">
-        <v>3</v>
+      <c r="D41" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E41">
         <v>32</v>
@@ -1145,8 +1156,8 @@
       <c r="C42" t="s">
         <v>12</v>
       </c>
-      <c r="D42" t="s">
-        <v>3</v>
+      <c r="D42" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E42">
         <v>106</v>
@@ -1162,8 +1173,8 @@
       <c r="C43" t="s">
         <v>12</v>
       </c>
-      <c r="D43" t="s">
-        <v>3</v>
+      <c r="D43" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E43">
         <v>4</v>
@@ -1179,8 +1190,8 @@
       <c r="C44" t="s">
         <v>12</v>
       </c>
-      <c r="D44" t="s">
-        <v>3</v>
+      <c r="D44" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E44">
         <v>300</v>
@@ -1196,8 +1207,8 @@
       <c r="C45" t="s">
         <v>12</v>
       </c>
-      <c r="D45" t="s">
-        <v>3</v>
+      <c r="D45" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E45">
         <v>175</v>
@@ -1213,8 +1224,8 @@
       <c r="C46" t="s">
         <v>12</v>
       </c>
-      <c r="D46" t="s">
-        <v>3</v>
+      <c r="D46" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E46">
         <v>30</v>
@@ -1230,8 +1241,8 @@
       <c r="C47" t="s">
         <v>12</v>
       </c>
-      <c r="D47" t="s">
-        <v>3</v>
+      <c r="D47" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E47">
         <v>188</v>
@@ -1247,8 +1258,8 @@
       <c r="C48" t="s">
         <v>12</v>
       </c>
-      <c r="D48" t="s">
-        <v>3</v>
+      <c r="D48" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E48">
         <v>300</v>
@@ -1264,8 +1275,8 @@
       <c r="C49" t="s">
         <v>12</v>
       </c>
-      <c r="D49" t="s">
-        <v>3</v>
+      <c r="D49" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E49">
         <v>15</v>
@@ -1281,8 +1292,8 @@
       <c r="C50" t="s">
         <v>12</v>
       </c>
-      <c r="D50" t="s">
-        <v>3</v>
+      <c r="D50" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E50">
         <v>6</v>
@@ -1298,8 +1309,8 @@
       <c r="C51" t="s">
         <v>12</v>
       </c>
-      <c r="D51" t="s">
-        <v>3</v>
+      <c r="D51" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E51">
         <v>55</v>
@@ -1315,8 +1326,8 @@
       <c r="C52" t="s">
         <v>12</v>
       </c>
-      <c r="D52" t="s">
-        <v>3</v>
+      <c r="D52" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E52">
         <v>40</v>
@@ -1332,8 +1343,8 @@
       <c r="C53" t="s">
         <v>12</v>
       </c>
-      <c r="D53" t="s">
-        <v>3</v>
+      <c r="D53" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E53">
         <v>239</v>
@@ -1349,8 +1360,8 @@
       <c r="C54" t="s">
         <v>12</v>
       </c>
-      <c r="D54" t="s">
-        <v>3</v>
+      <c r="D54" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E54">
         <v>23</v>
@@ -1366,8 +1377,8 @@
       <c r="C55" t="s">
         <v>12</v>
       </c>
-      <c r="D55" t="s">
-        <v>3</v>
+      <c r="D55" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E55">
         <v>26</v>
@@ -1383,8 +1394,8 @@
       <c r="C56" t="s">
         <v>12</v>
       </c>
-      <c r="D56" t="s">
-        <v>3</v>
+      <c r="D56" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E56">
         <v>300</v>
@@ -1400,8 +1411,8 @@
       <c r="C57" t="s">
         <v>12</v>
       </c>
-      <c r="D57" t="s">
-        <v>3</v>
+      <c r="D57" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E57">
         <v>46</v>
@@ -1417,8 +1428,8 @@
       <c r="C58" t="s">
         <v>12</v>
       </c>
-      <c r="D58" t="s">
-        <v>3</v>
+      <c r="D58" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E58">
         <v>20</v>
@@ -1434,8 +1445,8 @@
       <c r="C59" t="s">
         <v>12</v>
       </c>
-      <c r="D59" t="s">
-        <v>3</v>
+      <c r="D59" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E59">
         <v>236</v>
@@ -1451,8 +1462,8 @@
       <c r="C60" t="s">
         <v>12</v>
       </c>
-      <c r="D60" t="s">
-        <v>3</v>
+      <c r="D60" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E60">
         <v>71</v>
@@ -1468,8 +1479,8 @@
       <c r="C61" t="s">
         <v>12</v>
       </c>
-      <c r="D61" t="s">
-        <v>3</v>
+      <c r="D61" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E61">
         <v>46</v>
@@ -1485,8 +1496,8 @@
       <c r="C62" t="s">
         <v>12</v>
       </c>
-      <c r="D62" t="s">
-        <v>3</v>
+      <c r="D62" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E62">
         <v>73</v>
@@ -1502,8 +1513,8 @@
       <c r="C63" t="s">
         <v>12</v>
       </c>
-      <c r="D63" t="s">
-        <v>3</v>
+      <c r="D63" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E63">
         <v>57</v>
@@ -1519,8 +1530,8 @@
       <c r="C64" t="s">
         <v>12</v>
       </c>
-      <c r="D64" t="s">
-        <v>3</v>
+      <c r="D64" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E64">
         <v>21</v>
@@ -1536,8 +1547,8 @@
       <c r="C65" t="s">
         <v>12</v>
       </c>
-      <c r="D65" t="s">
-        <v>3</v>
+      <c r="D65" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E65">
         <v>278</v>
@@ -1553,8 +1564,8 @@
       <c r="C66" t="s">
         <v>12</v>
       </c>
-      <c r="D66" t="s">
-        <v>3</v>
+      <c r="D66" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E66">
         <v>200</v>
@@ -1570,8 +1581,8 @@
       <c r="C67" t="s">
         <v>12</v>
       </c>
-      <c r="D67" t="s">
-        <v>3</v>
+      <c r="D67" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E67">
         <v>139</v>
@@ -1587,8 +1598,8 @@
       <c r="C68" t="s">
         <v>12</v>
       </c>
-      <c r="D68" t="s">
-        <v>3</v>
+      <c r="D68" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E68">
         <v>88</v>
@@ -1604,8 +1615,8 @@
       <c r="C69" t="s">
         <v>12</v>
       </c>
-      <c r="D69" t="s">
-        <v>3</v>
+      <c r="D69" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E69">
         <v>81</v>
@@ -1621,8 +1632,8 @@
       <c r="C70" t="s">
         <v>12</v>
       </c>
-      <c r="D70" t="s">
-        <v>3</v>
+      <c r="D70" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E70">
         <v>93</v>
@@ -1638,8 +1649,8 @@
       <c r="C71" t="s">
         <v>12</v>
       </c>
-      <c r="D71" t="s">
-        <v>3</v>
+      <c r="D71" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E71">
         <v>28</v>
@@ -1655,8 +1666,8 @@
       <c r="C72" t="s">
         <v>12</v>
       </c>
-      <c r="D72" t="s">
-        <v>3</v>
+      <c r="D72" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E72">
         <v>16</v>
@@ -1672,8 +1683,8 @@
       <c r="C73" t="s">
         <v>12</v>
       </c>
-      <c r="D73" t="s">
-        <v>3</v>
+      <c r="D73" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E73">
         <v>37</v>
@@ -1689,8 +1700,8 @@
       <c r="C74" t="s">
         <v>12</v>
       </c>
-      <c r="D74" t="s">
-        <v>3</v>
+      <c r="D74" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E74">
         <v>63</v>
@@ -1706,8 +1717,8 @@
       <c r="C75" t="s">
         <v>12</v>
       </c>
-      <c r="D75" t="s">
-        <v>3</v>
+      <c r="D75" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E75">
         <v>20</v>
@@ -1723,8 +1734,8 @@
       <c r="C76" t="s">
         <v>12</v>
       </c>
-      <c r="D76" t="s">
-        <v>3</v>
+      <c r="D76" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E76">
         <v>18</v>
@@ -1740,8 +1751,8 @@
       <c r="C77" t="s">
         <v>12</v>
       </c>
-      <c r="D77" t="s">
-        <v>3</v>
+      <c r="D77" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E77">
         <v>19</v>
@@ -1757,8 +1768,8 @@
       <c r="C78" t="s">
         <v>12</v>
       </c>
-      <c r="D78" t="s">
-        <v>3</v>
+      <c r="D78" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E78">
         <v>30</v>
@@ -1774,8 +1785,8 @@
       <c r="C79" t="s">
         <v>9</v>
       </c>
-      <c r="D79" t="s">
-        <v>3</v>
+      <c r="D79" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E79">
         <v>11</v>
@@ -1791,8 +1802,8 @@
       <c r="C80" t="s">
         <v>9</v>
       </c>
-      <c r="D80" t="s">
-        <v>3</v>
+      <c r="D80" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E80">
         <v>52</v>
@@ -1808,8 +1819,8 @@
       <c r="C81" t="s">
         <v>9</v>
       </c>
-      <c r="D81" t="s">
-        <v>3</v>
+      <c r="D81" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E81">
         <v>13</v>
@@ -1825,8 +1836,8 @@
       <c r="C82" t="s">
         <v>9</v>
       </c>
-      <c r="D82" t="s">
-        <v>3</v>
+      <c r="D82" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -1842,8 +1853,8 @@
       <c r="C83" t="s">
         <v>9</v>
       </c>
-      <c r="D83" t="s">
-        <v>3</v>
+      <c r="D83" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E83">
         <v>11</v>
@@ -1859,8 +1870,8 @@
       <c r="C84" t="s">
         <v>9</v>
       </c>
-      <c r="D84" t="s">
-        <v>3</v>
+      <c r="D84" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E84">
         <v>48</v>
@@ -1876,8 +1887,8 @@
       <c r="C85" t="s">
         <v>9</v>
       </c>
-      <c r="D85" t="s">
-        <v>3</v>
+      <c r="D85" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E85">
         <v>10</v>
@@ -1893,8 +1904,8 @@
       <c r="C86" t="s">
         <v>9</v>
       </c>
-      <c r="D86" t="s">
-        <v>3</v>
+      <c r="D86" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E86">
         <v>67</v>
@@ -1910,8 +1921,8 @@
       <c r="C87" t="s">
         <v>9</v>
       </c>
-      <c r="D87" t="s">
-        <v>3</v>
+      <c r="D87" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E87">
         <v>29</v>
@@ -1927,8 +1938,8 @@
       <c r="C88" t="s">
         <v>9</v>
       </c>
-      <c r="D88" t="s">
-        <v>3</v>
+      <c r="D88" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E88">
         <v>15</v>
@@ -1944,8 +1955,8 @@
       <c r="C89" t="s">
         <v>9</v>
       </c>
-      <c r="D89" t="s">
-        <v>3</v>
+      <c r="D89" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E89">
         <v>9</v>
@@ -1961,8 +1972,8 @@
       <c r="C90" t="s">
         <v>9</v>
       </c>
-      <c r="D90" t="s">
-        <v>3</v>
+      <c r="D90" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E90">
         <v>26</v>
@@ -1978,8 +1989,8 @@
       <c r="C91" t="s">
         <v>9</v>
       </c>
-      <c r="D91" t="s">
-        <v>3</v>
+      <c r="D91" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -1995,8 +2006,8 @@
       <c r="C92" t="s">
         <v>9</v>
       </c>
-      <c r="D92" t="s">
-        <v>3</v>
+      <c r="D92" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E92">
         <v>59</v>
@@ -2012,8 +2023,8 @@
       <c r="C93" t="s">
         <v>9</v>
       </c>
-      <c r="D93" t="s">
-        <v>3</v>
+      <c r="D93" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E93">
         <v>8</v>
@@ -2029,8 +2040,8 @@
       <c r="C94" t="s">
         <v>9</v>
       </c>
-      <c r="D94" t="s">
-        <v>3</v>
+      <c r="D94" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E94">
         <v>34</v>
@@ -2046,8 +2057,8 @@
       <c r="C95" t="s">
         <v>9</v>
       </c>
-      <c r="D95" t="s">
-        <v>3</v>
+      <c r="D95" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E95">
         <v>300</v>
@@ -2063,8 +2074,8 @@
       <c r="C96" t="s">
         <v>9</v>
       </c>
-      <c r="D96" t="s">
-        <v>3</v>
+      <c r="D96" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E96">
         <v>124</v>
@@ -2080,8 +2091,8 @@
       <c r="C97" t="s">
         <v>9</v>
       </c>
-      <c r="D97" t="s">
-        <v>3</v>
+      <c r="D97" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E97">
         <v>63</v>
@@ -2097,8 +2108,8 @@
       <c r="C98" t="s">
         <v>9</v>
       </c>
-      <c r="D98" t="s">
-        <v>3</v>
+      <c r="D98" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E98">
         <v>300</v>
@@ -2114,8 +2125,8 @@
       <c r="C99" t="s">
         <v>9</v>
       </c>
-      <c r="D99" t="s">
-        <v>3</v>
+      <c r="D99" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E99">
         <v>63</v>
@@ -2131,8 +2142,8 @@
       <c r="C100" t="s">
         <v>9</v>
       </c>
-      <c r="D100" t="s">
-        <v>3</v>
+      <c r="D100" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E100">
         <v>84</v>
@@ -2148,8 +2159,8 @@
       <c r="C101" t="s">
         <v>9</v>
       </c>
-      <c r="D101" t="s">
-        <v>3</v>
+      <c r="D101" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E101">
         <v>164</v>
@@ -2165,8 +2176,8 @@
       <c r="C102" t="s">
         <v>9</v>
       </c>
-      <c r="D102" t="s">
-        <v>3</v>
+      <c r="D102" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E102">
         <v>25</v>
@@ -2182,8 +2193,8 @@
       <c r="C103" t="s">
         <v>9</v>
       </c>
-      <c r="D103" t="s">
-        <v>3</v>
+      <c r="D103" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E103">
         <v>22</v>
@@ -2199,8 +2210,8 @@
       <c r="C104" t="s">
         <v>9</v>
       </c>
-      <c r="D104" t="s">
-        <v>3</v>
+      <c r="D104" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E104">
         <v>9</v>
@@ -2216,8 +2227,8 @@
       <c r="C105" t="s">
         <v>9</v>
       </c>
-      <c r="D105" t="s">
-        <v>3</v>
+      <c r="D105" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E105">
         <v>11</v>
@@ -2233,8 +2244,8 @@
       <c r="C106" t="s">
         <v>9</v>
       </c>
-      <c r="D106" t="s">
-        <v>3</v>
+      <c r="D106" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E106">
         <v>26</v>
@@ -2250,8 +2261,8 @@
       <c r="C107" t="s">
         <v>9</v>
       </c>
-      <c r="D107" t="s">
-        <v>3</v>
+      <c r="D107" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E107">
         <v>42</v>
@@ -2267,8 +2278,8 @@
       <c r="C108" t="s">
         <v>9</v>
       </c>
-      <c r="D108" t="s">
-        <v>3</v>
+      <c r="D108" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E108">
         <v>16</v>
@@ -2284,8 +2295,8 @@
       <c r="C109" t="s">
         <v>9</v>
       </c>
-      <c r="D109" t="s">
-        <v>3</v>
+      <c r="D109" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E109">
         <v>9</v>
@@ -2301,8 +2312,8 @@
       <c r="C110" t="s">
         <v>9</v>
       </c>
-      <c r="D110" t="s">
-        <v>3</v>
+      <c r="D110" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E110">
         <v>18</v>
@@ -2318,8 +2329,8 @@
       <c r="C111" t="s">
         <v>9</v>
       </c>
-      <c r="D111" t="s">
-        <v>3</v>
+      <c r="D111" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E111">
         <v>33</v>
@@ -2335,8 +2346,8 @@
       <c r="C112" t="s">
         <v>9</v>
       </c>
-      <c r="D112" t="s">
-        <v>3</v>
+      <c r="D112" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E112">
         <v>12</v>
@@ -2352,8 +2363,8 @@
       <c r="C113" t="s">
         <v>9</v>
       </c>
-      <c r="D113" t="s">
-        <v>3</v>
+      <c r="D113" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E113">
         <v>26</v>
@@ -2369,8 +2380,8 @@
       <c r="C114" t="s">
         <v>9</v>
       </c>
-      <c r="D114" t="s">
-        <v>3</v>
+      <c r="D114" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E114">
         <v>18</v>
@@ -2386,8 +2397,8 @@
       <c r="C115" t="s">
         <v>9</v>
       </c>
-      <c r="D115" t="s">
-        <v>3</v>
+      <c r="D115" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E115">
         <v>9</v>
@@ -2403,8 +2414,8 @@
       <c r="C116" t="s">
         <v>9</v>
       </c>
-      <c r="D116" t="s">
-        <v>3</v>
+      <c r="D116" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E116">
         <v>14</v>
@@ -2420,8 +2431,8 @@
       <c r="C117" t="s">
         <v>9</v>
       </c>
-      <c r="D117" t="s">
-        <v>3</v>
+      <c r="D117" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E117">
         <v>25</v>
@@ -2437,8 +2448,8 @@
       <c r="C118" t="s">
         <v>9</v>
       </c>
-      <c r="D118" t="s">
-        <v>3</v>
+      <c r="D118" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E118">
         <v>22</v>
@@ -2454,8 +2465,8 @@
       <c r="C119" t="s">
         <v>9</v>
       </c>
-      <c r="D119" t="s">
-        <v>3</v>
+      <c r="D119" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E119">
         <v>22</v>
@@ -2471,8 +2482,8 @@
       <c r="C120" t="s">
         <v>9</v>
       </c>
-      <c r="D120" t="s">
-        <v>3</v>
+      <c r="D120" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E120">
         <v>25</v>
@@ -2488,8 +2499,8 @@
       <c r="C121" t="s">
         <v>9</v>
       </c>
-      <c r="D121" t="s">
-        <v>3</v>
+      <c r="D121" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E121">
         <v>21</v>
@@ -2505,8 +2516,8 @@
       <c r="C122" t="s">
         <v>12</v>
       </c>
-      <c r="D122" t="s">
-        <v>3</v>
+      <c r="D122" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E122">
         <v>49</v>
@@ -2522,8 +2533,8 @@
       <c r="C123" t="s">
         <v>12</v>
       </c>
-      <c r="D123" t="s">
-        <v>3</v>
+      <c r="D123" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E123">
         <v>28</v>
@@ -2539,8 +2550,8 @@
       <c r="C124" t="s">
         <v>12</v>
       </c>
-      <c r="D124" t="s">
-        <v>3</v>
+      <c r="D124" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E124">
         <v>26</v>
@@ -2556,8 +2567,8 @@
       <c r="C125" t="s">
         <v>12</v>
       </c>
-      <c r="D125" t="s">
-        <v>3</v>
+      <c r="D125" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E125">
         <v>18</v>
@@ -2573,8 +2584,8 @@
       <c r="C126" t="s">
         <v>12</v>
       </c>
-      <c r="D126" t="s">
-        <v>3</v>
+      <c r="D126" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E126">
         <v>73</v>
@@ -2590,8 +2601,8 @@
       <c r="C127" t="s">
         <v>12</v>
       </c>
-      <c r="D127" t="s">
-        <v>3</v>
+      <c r="D127" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E127">
         <v>40</v>
@@ -2607,8 +2618,8 @@
       <c r="C128" t="s">
         <v>12</v>
       </c>
-      <c r="D128" t="s">
-        <v>3</v>
+      <c r="D128" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E128">
         <v>48</v>
@@ -2624,8 +2635,8 @@
       <c r="C129" t="s">
         <v>12</v>
       </c>
-      <c r="D129" t="s">
-        <v>3</v>
+      <c r="D129" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E129">
         <v>156</v>
@@ -2641,8 +2652,8 @@
       <c r="C130" t="s">
         <v>12</v>
       </c>
-      <c r="D130" t="s">
-        <v>3</v>
+      <c r="D130" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E130">
         <v>18</v>
@@ -2658,8 +2669,8 @@
       <c r="C131" t="s">
         <v>12</v>
       </c>
-      <c r="D131" t="s">
-        <v>3</v>
+      <c r="D131" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E131">
         <v>13</v>
@@ -2675,8 +2686,8 @@
       <c r="C132" t="s">
         <v>12</v>
       </c>
-      <c r="D132" t="s">
-        <v>3</v>
+      <c r="D132" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E132">
         <v>138</v>
@@ -2692,8 +2703,8 @@
       <c r="C133" t="s">
         <v>12</v>
       </c>
-      <c r="D133" t="s">
-        <v>3</v>
+      <c r="D133" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E133">
         <v>300</v>
@@ -2709,8 +2720,8 @@
       <c r="C134" t="s">
         <v>12</v>
       </c>
-      <c r="D134" t="s">
-        <v>3</v>
+      <c r="D134" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E134">
         <v>53</v>
@@ -2726,8 +2737,8 @@
       <c r="C135" t="s">
         <v>12</v>
       </c>
-      <c r="D135" t="s">
-        <v>3</v>
+      <c r="D135" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E135">
         <v>47</v>
@@ -2743,8 +2754,8 @@
       <c r="C136" t="s">
         <v>12</v>
       </c>
-      <c r="D136" t="s">
-        <v>3</v>
+      <c r="D136" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E136">
         <v>15</v>
@@ -2760,8 +2771,8 @@
       <c r="C137" t="s">
         <v>12</v>
       </c>
-      <c r="D137" t="s">
-        <v>3</v>
+      <c r="D137" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E137">
         <v>39</v>
@@ -2777,8 +2788,8 @@
       <c r="C138" t="s">
         <v>12</v>
       </c>
-      <c r="D138" t="s">
-        <v>3</v>
+      <c r="D138" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E138">
         <v>22</v>
@@ -2794,8 +2805,8 @@
       <c r="C139" t="s">
         <v>12</v>
       </c>
-      <c r="D139" t="s">
-        <v>3</v>
+      <c r="D139" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E139">
         <v>25</v>
@@ -2811,8 +2822,8 @@
       <c r="C140" t="s">
         <v>12</v>
       </c>
-      <c r="D140" t="s">
-        <v>3</v>
+      <c r="D140" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E140">
         <v>57</v>
@@ -2828,8 +2839,8 @@
       <c r="C141" t="s">
         <v>12</v>
       </c>
-      <c r="D141" t="s">
-        <v>3</v>
+      <c r="D141" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E141">
         <v>31</v>
@@ -2845,8 +2856,8 @@
       <c r="C142" t="s">
         <v>12</v>
       </c>
-      <c r="D142" t="s">
-        <v>3</v>
+      <c r="D142" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E142">
         <v>41</v>
@@ -2862,8 +2873,8 @@
       <c r="C143" t="s">
         <v>12</v>
       </c>
-      <c r="D143" t="s">
-        <v>3</v>
+      <c r="D143" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E143">
         <v>11</v>
@@ -2879,8 +2890,8 @@
       <c r="C144" t="s">
         <v>12</v>
       </c>
-      <c r="D144" t="s">
-        <v>3</v>
+      <c r="D144" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E144">
         <v>10</v>
@@ -2896,8 +2907,8 @@
       <c r="C145" t="s">
         <v>12</v>
       </c>
-      <c r="D145" t="s">
-        <v>3</v>
+      <c r="D145" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E145">
         <v>34</v>
@@ -2913,8 +2924,8 @@
       <c r="C146" t="s">
         <v>12</v>
       </c>
-      <c r="D146" t="s">
-        <v>3</v>
+      <c r="D146" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E146">
         <v>19</v>
@@ -2930,8 +2941,8 @@
       <c r="C147" t="s">
         <v>12</v>
       </c>
-      <c r="D147" t="s">
-        <v>3</v>
+      <c r="D147" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E147">
         <v>6</v>
@@ -2947,8 +2958,8 @@
       <c r="C148" t="s">
         <v>12</v>
       </c>
-      <c r="D148" t="s">
-        <v>3</v>
+      <c r="D148" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E148">
         <v>33</v>
@@ -2964,8 +2975,8 @@
       <c r="C149" t="s">
         <v>12</v>
       </c>
-      <c r="D149" t="s">
-        <v>3</v>
+      <c r="D149" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E149">
         <v>3</v>
@@ -2981,8 +2992,8 @@
       <c r="C150" t="s">
         <v>12</v>
       </c>
-      <c r="D150" t="s">
-        <v>3</v>
+      <c r="D150" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E150">
         <v>40</v>
@@ -2998,8 +3009,8 @@
       <c r="C151" t="s">
         <v>12</v>
       </c>
-      <c r="D151" t="s">
-        <v>3</v>
+      <c r="D151" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E151">
         <v>62</v>
@@ -3015,8 +3026,8 @@
       <c r="C152" t="s">
         <v>12</v>
       </c>
-      <c r="D152" t="s">
-        <v>3</v>
+      <c r="D152" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E152">
         <v>110</v>
@@ -3032,8 +3043,8 @@
       <c r="C153" t="s">
         <v>12</v>
       </c>
-      <c r="D153" t="s">
-        <v>3</v>
+      <c r="D153" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E153">
         <v>33</v>
@@ -3049,8 +3060,8 @@
       <c r="C154" t="s">
         <v>12</v>
       </c>
-      <c r="D154" t="s">
-        <v>3</v>
+      <c r="D154" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E154">
         <v>7</v>
@@ -3066,8 +3077,8 @@
       <c r="C155" t="s">
         <v>12</v>
       </c>
-      <c r="D155" t="s">
-        <v>3</v>
+      <c r="D155" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E155">
         <v>160</v>
@@ -3083,8 +3094,8 @@
       <c r="C156" t="s">
         <v>12</v>
       </c>
-      <c r="D156" t="s">
-        <v>3</v>
+      <c r="D156" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E156">
         <v>300</v>
@@ -3100,8 +3111,8 @@
       <c r="C157" t="s">
         <v>12</v>
       </c>
-      <c r="D157" t="s">
-        <v>3</v>
+      <c r="D157" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E157">
         <v>300</v>
@@ -3117,8 +3128,8 @@
       <c r="C158" t="s">
         <v>12</v>
       </c>
-      <c r="D158" t="s">
-        <v>3</v>
+      <c r="D158" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E158">
         <v>8</v>
@@ -3134,8 +3145,8 @@
       <c r="C159" t="s">
         <v>12</v>
       </c>
-      <c r="D159" t="s">
-        <v>3</v>
+      <c r="D159" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E159">
         <v>41</v>
@@ -3151,8 +3162,8 @@
       <c r="C160" t="s">
         <v>12</v>
       </c>
-      <c r="D160" t="s">
-        <v>3</v>
+      <c r="D160" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E160">
         <v>300</v>
@@ -3168,8 +3179,8 @@
       <c r="C161" t="s">
         <v>12</v>
       </c>
-      <c r="D161" t="s">
-        <v>3</v>
+      <c r="D161" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E161">
         <v>274</v>
@@ -3185,8 +3196,8 @@
       <c r="C162" t="s">
         <v>12</v>
       </c>
-      <c r="D162" t="s">
-        <v>3</v>
+      <c r="D162" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E162">
         <v>30</v>
@@ -3202,8 +3213,8 @@
       <c r="C163" t="s">
         <v>9</v>
       </c>
-      <c r="D163" t="s">
-        <v>3</v>
+      <c r="D163" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E163">
         <v>300</v>
@@ -3219,8 +3230,8 @@
       <c r="C164" t="s">
         <v>9</v>
       </c>
-      <c r="D164" t="s">
-        <v>3</v>
+      <c r="D164" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E164">
         <v>216</v>
@@ -3236,8 +3247,8 @@
       <c r="C165" t="s">
         <v>9</v>
       </c>
-      <c r="D165" t="s">
-        <v>3</v>
+      <c r="D165" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E165">
         <v>300</v>
@@ -3253,8 +3264,8 @@
       <c r="C166" t="s">
         <v>9</v>
       </c>
-      <c r="D166" t="s">
-        <v>3</v>
+      <c r="D166" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E166">
         <v>300</v>
@@ -3270,8 +3281,8 @@
       <c r="C167" t="s">
         <v>9</v>
       </c>
-      <c r="D167" t="s">
-        <v>3</v>
+      <c r="D167" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E167">
         <v>300</v>
@@ -3287,8 +3298,8 @@
       <c r="C168" t="s">
         <v>9</v>
       </c>
-      <c r="D168" t="s">
-        <v>3</v>
+      <c r="D168" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E168">
         <v>300</v>
@@ -3304,8 +3315,8 @@
       <c r="C169" t="s">
         <v>9</v>
       </c>
-      <c r="D169" t="s">
-        <v>3</v>
+      <c r="D169" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E169">
         <v>223</v>
@@ -3321,8 +3332,8 @@
       <c r="C170" t="s">
         <v>9</v>
       </c>
-      <c r="D170" t="s">
-        <v>3</v>
+      <c r="D170" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E170">
         <v>300</v>
@@ -3338,8 +3349,8 @@
       <c r="C171" t="s">
         <v>9</v>
       </c>
-      <c r="D171" t="s">
-        <v>3</v>
+      <c r="D171" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E171">
         <v>300</v>
@@ -3355,8 +3366,8 @@
       <c r="C172" t="s">
         <v>9</v>
       </c>
-      <c r="D172" t="s">
-        <v>3</v>
+      <c r="D172" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E172">
         <v>300</v>
@@ -3372,8 +3383,8 @@
       <c r="C173" t="s">
         <v>9</v>
       </c>
-      <c r="D173" t="s">
-        <v>3</v>
+      <c r="D173" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E173">
         <v>31</v>
@@ -3389,8 +3400,8 @@
       <c r="C174" t="s">
         <v>9</v>
       </c>
-      <c r="D174" t="s">
-        <v>3</v>
+      <c r="D174" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E174">
         <v>21</v>
@@ -3406,8 +3417,8 @@
       <c r="C175" t="s">
         <v>9</v>
       </c>
-      <c r="D175" t="s">
-        <v>3</v>
+      <c r="D175" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E175">
         <v>300</v>
@@ -3423,8 +3434,8 @@
       <c r="C176" t="s">
         <v>9</v>
       </c>
-      <c r="D176" t="s">
-        <v>3</v>
+      <c r="D176" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E176">
         <v>76</v>
@@ -3440,8 +3451,8 @@
       <c r="C177" t="s">
         <v>9</v>
       </c>
-      <c r="D177" t="s">
-        <v>3</v>
+      <c r="D177" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E177">
         <v>300</v>
@@ -3457,8 +3468,8 @@
       <c r="C178" t="s">
         <v>9</v>
       </c>
-      <c r="D178" t="s">
-        <v>3</v>
+      <c r="D178" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E178">
         <v>91</v>
@@ -3474,8 +3485,8 @@
       <c r="C179" t="s">
         <v>9</v>
       </c>
-      <c r="D179" t="s">
-        <v>3</v>
+      <c r="D179" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E179">
         <v>300</v>
@@ -3491,8 +3502,8 @@
       <c r="C180" t="s">
         <v>9</v>
       </c>
-      <c r="D180" t="s">
-        <v>3</v>
+      <c r="D180" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E180">
         <v>300</v>
@@ -3508,8 +3519,8 @@
       <c r="C181" t="s">
         <v>9</v>
       </c>
-      <c r="D181" t="s">
-        <v>3</v>
+      <c r="D181" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E181">
         <v>70</v>
@@ -3525,8 +3536,8 @@
       <c r="C182" t="s">
         <v>9</v>
       </c>
-      <c r="D182" t="s">
-        <v>3</v>
+      <c r="D182" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E182">
         <v>300</v>
@@ -3542,8 +3553,8 @@
       <c r="C183" t="s">
         <v>9</v>
       </c>
-      <c r="D183" t="s">
-        <v>3</v>
+      <c r="D183" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E183">
         <v>300</v>
@@ -3559,8 +3570,8 @@
       <c r="C184" t="s">
         <v>9</v>
       </c>
-      <c r="D184" t="s">
-        <v>3</v>
+      <c r="D184" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E184">
         <v>31</v>
@@ -3576,8 +3587,8 @@
       <c r="C185" t="s">
         <v>9</v>
       </c>
-      <c r="D185" t="s">
-        <v>3</v>
+      <c r="D185" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E185">
         <v>300</v>
@@ -3593,8 +3604,8 @@
       <c r="C186" t="s">
         <v>9</v>
       </c>
-      <c r="D186" t="s">
-        <v>3</v>
+      <c r="D186" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E186">
         <v>123</v>
@@ -3610,8 +3621,8 @@
       <c r="C187" t="s">
         <v>12</v>
       </c>
-      <c r="D187" t="s">
-        <v>3</v>
+      <c r="D187" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E187">
         <v>118</v>
@@ -3627,8 +3638,8 @@
       <c r="C188" t="s">
         <v>12</v>
       </c>
-      <c r="D188" t="s">
-        <v>3</v>
+      <c r="D188" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E188">
         <v>19</v>
@@ -3644,8 +3655,8 @@
       <c r="C189" t="s">
         <v>12</v>
       </c>
-      <c r="D189" t="s">
-        <v>3</v>
+      <c r="D189" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E189">
         <v>300</v>
@@ -3661,8 +3672,8 @@
       <c r="C190" t="s">
         <v>12</v>
       </c>
-      <c r="D190" t="s">
-        <v>3</v>
+      <c r="D190" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E190">
         <v>289</v>
@@ -3678,8 +3689,8 @@
       <c r="C191" t="s">
         <v>12</v>
       </c>
-      <c r="D191" t="s">
-        <v>3</v>
+      <c r="D191" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E191">
         <v>38</v>
@@ -3695,8 +3706,8 @@
       <c r="C192" t="s">
         <v>12</v>
       </c>
-      <c r="D192" t="s">
-        <v>3</v>
+      <c r="D192" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E192">
         <v>300</v>
@@ -3712,8 +3723,8 @@
       <c r="C193" t="s">
         <v>9</v>
       </c>
-      <c r="D193" t="s">
-        <v>3</v>
+      <c r="D193" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E193">
         <v>300</v>
@@ -3729,8 +3740,8 @@
       <c r="C194" t="s">
         <v>9</v>
       </c>
-      <c r="D194" t="s">
-        <v>3</v>
+      <c r="D194" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E194">
         <v>300</v>
@@ -3746,8 +3757,8 @@
       <c r="C195" t="s">
         <v>9</v>
       </c>
-      <c r="D195" t="s">
-        <v>3</v>
+      <c r="D195" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E195">
         <v>224</v>
@@ -3763,8 +3774,8 @@
       <c r="C196" t="s">
         <v>9</v>
       </c>
-      <c r="D196" t="s">
-        <v>3</v>
+      <c r="D196" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E196">
         <v>300</v>
@@ -3780,8 +3791,8 @@
       <c r="C197" t="s">
         <v>12</v>
       </c>
-      <c r="D197" t="s">
-        <v>3</v>
+      <c r="D197" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E197">
         <v>300</v>
@@ -3797,8 +3808,8 @@
       <c r="C198" t="s">
         <v>9</v>
       </c>
-      <c r="D198" t="s">
-        <v>3</v>
+      <c r="D198" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E198">
         <v>300</v>
@@ -3814,8 +3825,8 @@
       <c r="C199" t="s">
         <v>9</v>
       </c>
-      <c r="D199" t="s">
-        <v>3</v>
+      <c r="D199" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E199">
         <v>300</v>
@@ -3831,8 +3842,8 @@
       <c r="C200" t="s">
         <v>12</v>
       </c>
-      <c r="D200" t="s">
-        <v>3</v>
+      <c r="D200" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E200">
         <v>37</v>
@@ -3848,8 +3859,8 @@
       <c r="C201" t="s">
         <v>12</v>
       </c>
-      <c r="D201" t="s">
-        <v>3</v>
+      <c r="D201" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E201">
         <v>120</v>
@@ -3865,8 +3876,8 @@
       <c r="C202" t="s">
         <v>12</v>
       </c>
-      <c r="D202" t="s">
-        <v>3</v>
+      <c r="D202" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E202">
         <v>27</v>
@@ -3882,8 +3893,8 @@
       <c r="C203" t="s">
         <v>12</v>
       </c>
-      <c r="D203" t="s">
-        <v>3</v>
+      <c r="D203" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E203">
         <v>39</v>
@@ -3899,8 +3910,8 @@
       <c r="C204" t="s">
         <v>12</v>
       </c>
-      <c r="D204" t="s">
-        <v>3</v>
+      <c r="D204" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E204">
         <v>12</v>
@@ -3916,8 +3927,8 @@
       <c r="C205" t="s">
         <v>12</v>
       </c>
-      <c r="D205" t="s">
-        <v>3</v>
+      <c r="D205" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E205">
         <v>28</v>
@@ -3933,8 +3944,8 @@
       <c r="C206" t="s">
         <v>12</v>
       </c>
-      <c r="D206" t="s">
-        <v>3</v>
+      <c r="D206" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E206">
         <v>40</v>
@@ -3950,8 +3961,8 @@
       <c r="C207" t="s">
         <v>12</v>
       </c>
-      <c r="D207" t="s">
-        <v>3</v>
+      <c r="D207" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E207">
         <v>13</v>
@@ -3967,8 +3978,8 @@
       <c r="C208" t="s">
         <v>12</v>
       </c>
-      <c r="D208" t="s">
-        <v>3</v>
+      <c r="D208" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E208">
         <v>44</v>
@@ -3984,8 +3995,8 @@
       <c r="C209" t="s">
         <v>12</v>
       </c>
-      <c r="D209" t="s">
-        <v>3</v>
+      <c r="D209" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E209">
         <v>50</v>
@@ -4001,8 +4012,8 @@
       <c r="C210" t="s">
         <v>12</v>
       </c>
-      <c r="D210" t="s">
-        <v>3</v>
+      <c r="D210" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E210">
         <v>38</v>
@@ -4018,8 +4029,8 @@
       <c r="C211" t="s">
         <v>12</v>
       </c>
-      <c r="D211" t="s">
-        <v>3</v>
+      <c r="D211" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E211">
         <v>5</v>
@@ -4035,8 +4046,8 @@
       <c r="C212" t="s">
         <v>12</v>
       </c>
-      <c r="D212" t="s">
-        <v>3</v>
+      <c r="D212" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E212">
         <v>9</v>
@@ -4052,8 +4063,8 @@
       <c r="C213" t="s">
         <v>9</v>
       </c>
-      <c r="D213" t="s">
-        <v>3</v>
+      <c r="D213" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E213">
         <v>12</v>
@@ -4069,8 +4080,8 @@
       <c r="C214" t="s">
         <v>9</v>
       </c>
-      <c r="D214" t="s">
-        <v>3</v>
+      <c r="D214" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E214">
         <v>16</v>
@@ -4086,8 +4097,8 @@
       <c r="C215" t="s">
         <v>9</v>
       </c>
-      <c r="D215" t="s">
-        <v>3</v>
+      <c r="D215" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E215">
         <v>41</v>
@@ -4103,8 +4114,8 @@
       <c r="C216" t="s">
         <v>9</v>
       </c>
-      <c r="D216" t="s">
-        <v>3</v>
+      <c r="D216" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E216">
         <v>12</v>
@@ -4120,8 +4131,8 @@
       <c r="C217" t="s">
         <v>9</v>
       </c>
-      <c r="D217" t="s">
-        <v>3</v>
+      <c r="D217" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E217">
         <v>180</v>
@@ -4137,8 +4148,8 @@
       <c r="C218" t="s">
         <v>9</v>
       </c>
-      <c r="D218" t="s">
-        <v>3</v>
+      <c r="D218" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E218">
         <v>89</v>
@@ -4154,8 +4165,8 @@
       <c r="C219" t="s">
         <v>9</v>
       </c>
-      <c r="D219" t="s">
-        <v>3</v>
+      <c r="D219" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E219">
         <v>189</v>
@@ -4171,8 +4182,8 @@
       <c r="C220" t="s">
         <v>9</v>
       </c>
-      <c r="D220" t="s">
-        <v>3</v>
+      <c r="D220" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E220">
         <v>147</v>
@@ -4188,8 +4199,8 @@
       <c r="C221" t="s">
         <v>9</v>
       </c>
-      <c r="D221" t="s">
-        <v>3</v>
+      <c r="D221" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E221">
         <v>152</v>
@@ -4205,8 +4216,8 @@
       <c r="C222" t="s">
         <v>9</v>
       </c>
-      <c r="D222" t="s">
-        <v>3</v>
+      <c r="D222" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E222">
         <v>300</v>
@@ -4223,7 +4234,7 @@
         <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E223" t="s">
         <v>10</v>
@@ -4240,7 +4251,7 @@
         <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E224" t="s">
         <v>10</v>
@@ -4257,7 +4268,7 @@
         <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E225" t="s">
         <v>10</v>
@@ -4274,7 +4285,7 @@
         <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E226" t="s">
         <v>10</v>
@@ -4291,7 +4302,7 @@
         <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E227" t="s">
         <v>10</v>
@@ -4308,7 +4319,7 @@
         <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E228" t="s">
         <v>10</v>
@@ -4325,7 +4336,7 @@
         <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E229" t="s">
         <v>10</v>
@@ -4342,7 +4353,7 @@
         <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E230" t="s">
         <v>10</v>
@@ -4359,7 +4370,7 @@
         <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E231" t="s">
         <v>10</v>
@@ -4376,7 +4387,7 @@
         <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E232" t="s">
         <v>10</v>
@@ -4393,7 +4404,7 @@
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E233" t="s">
         <v>10</v>
@@ -4410,7 +4421,7 @@
         <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E234" t="s">
         <v>10</v>
@@ -4427,7 +4438,7 @@
         <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E235" t="s">
         <v>10</v>
@@ -4444,7 +4455,7 @@
         <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E236" t="s">
         <v>10</v>
@@ -4461,7 +4472,7 @@
         <v>9</v>
       </c>
       <c r="D237" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E237" t="s">
         <v>10</v>
@@ -4478,7 +4489,7 @@
         <v>9</v>
       </c>
       <c r="D238" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E238" t="s">
         <v>10</v>
@@ -4495,7 +4506,7 @@
         <v>9</v>
       </c>
       <c r="D239" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E239" t="s">
         <v>10</v>
@@ -4512,7 +4523,7 @@
         <v>9</v>
       </c>
       <c r="D240" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E240" t="s">
         <v>10</v>
@@ -4529,7 +4540,7 @@
         <v>9</v>
       </c>
       <c r="D241" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E241" t="s">
         <v>10</v>
@@ -4546,7 +4557,7 @@
         <v>9</v>
       </c>
       <c r="D242" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E242" t="s">
         <v>10</v>
@@ -4563,7 +4574,7 @@
         <v>9</v>
       </c>
       <c r="D243" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E243" t="s">
         <v>10</v>
@@ -4580,7 +4591,7 @@
         <v>9</v>
       </c>
       <c r="D244" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E244" t="s">
         <v>10</v>
@@ -4597,7 +4608,7 @@
         <v>9</v>
       </c>
       <c r="D245" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E245" t="s">
         <v>10</v>
@@ -4614,7 +4625,7 @@
         <v>9</v>
       </c>
       <c r="D246" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E246" t="s">
         <v>10</v>
@@ -4631,7 +4642,7 @@
         <v>9</v>
       </c>
       <c r="D247" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E247" t="s">
         <v>10</v>
@@ -4648,7 +4659,7 @@
         <v>9</v>
       </c>
       <c r="D248" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E248" t="s">
         <v>10</v>
@@ -4665,7 +4676,7 @@
         <v>9</v>
       </c>
       <c r="D249" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E249" t="s">
         <v>10</v>
@@ -4682,7 +4693,7 @@
         <v>9</v>
       </c>
       <c r="D250" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E250" t="s">
         <v>10</v>
@@ -4699,7 +4710,7 @@
         <v>9</v>
       </c>
       <c r="D251" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E251" t="s">
         <v>10</v>
@@ -4716,7 +4727,7 @@
         <v>9</v>
       </c>
       <c r="D252" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E252" t="s">
         <v>10</v>
@@ -4733,7 +4744,7 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E253" t="s">
         <v>10</v>
@@ -4750,7 +4761,7 @@
         <v>9</v>
       </c>
       <c r="D254" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E254" t="s">
         <v>10</v>
@@ -4767,7 +4778,7 @@
         <v>9</v>
       </c>
       <c r="D255" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E255" t="s">
         <v>10</v>
@@ -4784,7 +4795,7 @@
         <v>9</v>
       </c>
       <c r="D256" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E256" t="s">
         <v>10</v>
@@ -4801,7 +4812,7 @@
         <v>9</v>
       </c>
       <c r="D257" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E257" t="s">
         <v>10</v>
@@ -4818,7 +4829,7 @@
         <v>9</v>
       </c>
       <c r="D258" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E258" t="s">
         <v>10</v>
@@ -4835,7 +4846,7 @@
         <v>9</v>
       </c>
       <c r="D259" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E259" t="s">
         <v>10</v>
@@ -4852,7 +4863,7 @@
         <v>12</v>
       </c>
       <c r="D260" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E260" t="s">
         <v>10</v>
@@ -4869,7 +4880,7 @@
         <v>12</v>
       </c>
       <c r="D261" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E261" t="s">
         <v>10</v>
@@ -4886,7 +4897,7 @@
         <v>12</v>
       </c>
       <c r="D262" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E262" t="s">
         <v>10</v>
@@ -4903,7 +4914,7 @@
         <v>12</v>
       </c>
       <c r="D263" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E263" t="s">
         <v>10</v>
@@ -4920,7 +4931,7 @@
         <v>12</v>
       </c>
       <c r="D264" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E264" t="s">
         <v>10</v>
@@ -4937,7 +4948,7 @@
         <v>12</v>
       </c>
       <c r="D265" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E265" t="s">
         <v>10</v>
@@ -4954,7 +4965,7 @@
         <v>12</v>
       </c>
       <c r="D266" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E266" t="s">
         <v>10</v>
@@ -4971,7 +4982,7 @@
         <v>12</v>
       </c>
       <c r="D267" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E267" t="s">
         <v>10</v>
@@ -4988,7 +4999,7 @@
         <v>12</v>
       </c>
       <c r="D268" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E268" t="s">
         <v>10</v>
@@ -5005,7 +5016,7 @@
         <v>12</v>
       </c>
       <c r="D269" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E269" t="s">
         <v>10</v>
@@ -5022,7 +5033,7 @@
         <v>12</v>
       </c>
       <c r="D270" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E270" t="s">
         <v>10</v>
@@ -5039,7 +5050,7 @@
         <v>12</v>
       </c>
       <c r="D271" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E271" t="s">
         <v>10</v>
@@ -5056,7 +5067,7 @@
         <v>12</v>
       </c>
       <c r="D272" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E272" t="s">
         <v>10</v>
@@ -5073,7 +5084,7 @@
         <v>12</v>
       </c>
       <c r="D273" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E273" t="s">
         <v>10</v>
@@ -5090,7 +5101,7 @@
         <v>12</v>
       </c>
       <c r="D274" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E274" t="s">
         <v>10</v>
@@ -5107,7 +5118,7 @@
         <v>12</v>
       </c>
       <c r="D275" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E275" t="s">
         <v>10</v>
@@ -5124,7 +5135,7 @@
         <v>12</v>
       </c>
       <c r="D276" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E276" t="s">
         <v>10</v>
@@ -5141,7 +5152,7 @@
         <v>12</v>
       </c>
       <c r="D277" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E277" t="s">
         <v>10</v>
@@ -5158,7 +5169,7 @@
         <v>12</v>
       </c>
       <c r="D278" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E278" t="s">
         <v>10</v>
@@ -5175,7 +5186,7 @@
         <v>12</v>
       </c>
       <c r="D279" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E279" t="s">
         <v>10</v>
@@ -5192,7 +5203,7 @@
         <v>12</v>
       </c>
       <c r="D280" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E280" t="s">
         <v>10</v>
@@ -5209,7 +5220,7 @@
         <v>12</v>
       </c>
       <c r="D281" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E281" t="s">
         <v>10</v>
@@ -5226,7 +5237,7 @@
         <v>12</v>
       </c>
       <c r="D282" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E282" t="s">
         <v>10</v>
@@ -5243,7 +5254,7 @@
         <v>12</v>
       </c>
       <c r="D283" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E283" t="s">
         <v>10</v>
@@ -5260,7 +5271,7 @@
         <v>12</v>
       </c>
       <c r="D284" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E284" t="s">
         <v>10</v>
@@ -5277,7 +5288,7 @@
         <v>12</v>
       </c>
       <c r="D285" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E285" t="s">
         <v>10</v>
@@ -5294,7 +5305,7 @@
         <v>12</v>
       </c>
       <c r="D286" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E286" t="s">
         <v>10</v>
@@ -5311,7 +5322,7 @@
         <v>12</v>
       </c>
       <c r="D287" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E287" t="s">
         <v>10</v>
@@ -5328,7 +5339,7 @@
         <v>12</v>
       </c>
       <c r="D288" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E288" t="s">
         <v>10</v>
@@ -5345,7 +5356,7 @@
         <v>12</v>
       </c>
       <c r="D289" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E289" t="s">
         <v>10</v>
@@ -5362,7 +5373,7 @@
         <v>12</v>
       </c>
       <c r="D290" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E290" t="s">
         <v>10</v>
@@ -5379,7 +5390,7 @@
         <v>12</v>
       </c>
       <c r="D291" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E291" t="s">
         <v>10</v>
@@ -5396,7 +5407,7 @@
         <v>12</v>
       </c>
       <c r="D292" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E292" t="s">
         <v>10</v>
@@ -5413,7 +5424,7 @@
         <v>12</v>
       </c>
       <c r="D293" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E293" t="s">
         <v>10</v>
@@ -5430,7 +5441,7 @@
         <v>12</v>
       </c>
       <c r="D294" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E294" t="s">
         <v>10</v>
@@ -5447,7 +5458,7 @@
         <v>12</v>
       </c>
       <c r="D295" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E295" t="s">
         <v>10</v>
@@ -5464,7 +5475,7 @@
         <v>12</v>
       </c>
       <c r="D296" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E296" t="s">
         <v>10</v>
@@ -5481,7 +5492,7 @@
         <v>12</v>
       </c>
       <c r="D297" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E297" t="s">
         <v>10</v>
@@ -5498,7 +5509,7 @@
         <v>12</v>
       </c>
       <c r="D298" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E298" t="s">
         <v>10</v>
@@ -5515,7 +5526,7 @@
         <v>12</v>
       </c>
       <c r="D299" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E299" t="s">
         <v>10</v>
@@ -5532,7 +5543,7 @@
         <v>9</v>
       </c>
       <c r="D300" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E300" t="s">
         <v>10</v>
@@ -5549,7 +5560,7 @@
         <v>9</v>
       </c>
       <c r="D301" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E301" t="s">
         <v>10</v>
@@ -5566,7 +5577,7 @@
         <v>9</v>
       </c>
       <c r="D302" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E302" t="s">
         <v>10</v>
@@ -5583,7 +5594,7 @@
         <v>9</v>
       </c>
       <c r="D303" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E303" t="s">
         <v>10</v>
@@ -5600,7 +5611,7 @@
         <v>9</v>
       </c>
       <c r="D304" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E304" t="s">
         <v>10</v>
@@ -5617,7 +5628,7 @@
         <v>9</v>
       </c>
       <c r="D305" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E305" t="s">
         <v>10</v>
@@ -5634,7 +5645,7 @@
         <v>9</v>
       </c>
       <c r="D306" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E306" t="s">
         <v>10</v>
@@ -5651,7 +5662,7 @@
         <v>9</v>
       </c>
       <c r="D307" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E307" t="s">
         <v>10</v>
@@ -5668,7 +5679,7 @@
         <v>9</v>
       </c>
       <c r="D308" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E308" t="s">
         <v>10</v>
@@ -5685,7 +5696,7 @@
         <v>9</v>
       </c>
       <c r="D309" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E309" t="s">
         <v>10</v>
@@ -5702,7 +5713,7 @@
         <v>9</v>
       </c>
       <c r="D310" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E310" t="s">
         <v>10</v>
@@ -5719,7 +5730,7 @@
         <v>9</v>
       </c>
       <c r="D311" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E311" t="s">
         <v>10</v>
@@ -5736,7 +5747,7 @@
         <v>9</v>
       </c>
       <c r="D312" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E312" t="s">
         <v>10</v>
@@ -5753,7 +5764,7 @@
         <v>9</v>
       </c>
       <c r="D313" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E313" t="s">
         <v>10</v>
@@ -5770,7 +5781,7 @@
         <v>9</v>
       </c>
       <c r="D314" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E314" t="s">
         <v>10</v>
@@ -5787,7 +5798,7 @@
         <v>9</v>
       </c>
       <c r="D315" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E315" t="s">
         <v>10</v>
@@ -5804,7 +5815,7 @@
         <v>9</v>
       </c>
       <c r="D316" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E316" t="s">
         <v>10</v>
@@ -5821,7 +5832,7 @@
         <v>9</v>
       </c>
       <c r="D317" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E317" t="s">
         <v>10</v>
@@ -5838,7 +5849,7 @@
         <v>9</v>
       </c>
       <c r="D318" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E318" t="s">
         <v>10</v>
@@ -5855,7 +5866,7 @@
         <v>9</v>
       </c>
       <c r="D319" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E319" t="s">
         <v>10</v>
@@ -5872,7 +5883,7 @@
         <v>9</v>
       </c>
       <c r="D320" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E320" t="s">
         <v>10</v>
@@ -5889,7 +5900,7 @@
         <v>9</v>
       </c>
       <c r="D321" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E321" t="s">
         <v>10</v>
@@ -5906,7 +5917,7 @@
         <v>9</v>
       </c>
       <c r="D322" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E322" t="s">
         <v>10</v>
@@ -5923,7 +5934,7 @@
         <v>9</v>
       </c>
       <c r="D323" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E323">
         <v>31</v>
@@ -5940,7 +5951,7 @@
         <v>9</v>
       </c>
       <c r="D324" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E324">
         <v>28</v>
@@ -5957,7 +5968,7 @@
         <v>9</v>
       </c>
       <c r="D325" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E325">
         <v>21</v>
@@ -5974,7 +5985,7 @@
         <v>9</v>
       </c>
       <c r="D326" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E326">
         <v>26</v>
@@ -5991,7 +6002,7 @@
         <v>9</v>
       </c>
       <c r="D327" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E327">
         <v>21</v>
@@ -6008,7 +6019,7 @@
         <v>9</v>
       </c>
       <c r="D328" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E328">
         <v>31</v>
@@ -6025,7 +6036,7 @@
         <v>9</v>
       </c>
       <c r="D329" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E329">
         <v>21</v>
@@ -6042,7 +6053,7 @@
         <v>9</v>
       </c>
       <c r="D330" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E330">
         <v>27</v>
@@ -6059,7 +6070,7 @@
         <v>9</v>
       </c>
       <c r="D331" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E331">
         <v>36</v>
@@ -6076,7 +6087,7 @@
         <v>9</v>
       </c>
       <c r="D332" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E332">
         <v>29</v>
@@ -6093,7 +6104,7 @@
         <v>9</v>
       </c>
       <c r="D333" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E333">
         <v>32</v>
@@ -6110,7 +6121,7 @@
         <v>9</v>
       </c>
       <c r="D334" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E334">
         <v>18</v>
@@ -6127,7 +6138,7 @@
         <v>9</v>
       </c>
       <c r="D335" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E335">
         <v>18</v>
@@ -6144,7 +6155,7 @@
         <v>9</v>
       </c>
       <c r="D336" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E336">
         <v>22</v>
@@ -6161,7 +6172,7 @@
         <v>9</v>
       </c>
       <c r="D337" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E337">
         <v>17</v>
@@ -6178,7 +6189,7 @@
         <v>9</v>
       </c>
       <c r="D338" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E338">
         <v>31</v>
@@ -6195,7 +6206,7 @@
         <v>9</v>
       </c>
       <c r="D339" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E339" t="s">
         <v>10</v>
@@ -6212,7 +6223,7 @@
         <v>9</v>
       </c>
       <c r="D340" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E340">
         <v>25</v>
@@ -6229,7 +6240,7 @@
         <v>9</v>
       </c>
       <c r="D341" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E341">
         <v>34</v>
@@ -6246,7 +6257,7 @@
         <v>9</v>
       </c>
       <c r="D342" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E342">
         <v>29</v>
@@ -6263,7 +6274,7 @@
         <v>12</v>
       </c>
       <c r="D343" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E343">
         <v>12</v>
@@ -6280,7 +6291,7 @@
         <v>12</v>
       </c>
       <c r="D344" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E344">
         <v>31</v>
@@ -6297,7 +6308,7 @@
         <v>12</v>
       </c>
       <c r="D345" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E345">
         <v>14</v>
@@ -6314,7 +6325,7 @@
         <v>12</v>
       </c>
       <c r="D346" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E346">
         <v>46</v>
@@ -6331,7 +6342,7 @@
         <v>12</v>
       </c>
       <c r="D347" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E347">
         <v>13</v>
@@ -6348,7 +6359,7 @@
         <v>12</v>
       </c>
       <c r="D348" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E348">
         <v>26</v>
@@ -6365,7 +6376,7 @@
         <v>12</v>
       </c>
       <c r="D349" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E349">
         <v>15</v>
@@ -6382,7 +6393,7 @@
         <v>12</v>
       </c>
       <c r="D350" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E350">
         <v>9</v>
@@ -6399,7 +6410,7 @@
         <v>12</v>
       </c>
       <c r="D351" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E351">
         <v>8</v>
@@ -6416,7 +6427,7 @@
         <v>12</v>
       </c>
       <c r="D352" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E352">
         <v>11</v>
@@ -6433,7 +6444,7 @@
         <v>12</v>
       </c>
       <c r="D353" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E353">
         <v>12</v>
@@ -6450,7 +6461,7 @@
         <v>12</v>
       </c>
       <c r="D354" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E354" t="s">
         <v>10</v>
@@ -6467,7 +6478,7 @@
         <v>12</v>
       </c>
       <c r="D355" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E355">
         <v>25</v>
@@ -6484,7 +6495,7 @@
         <v>12</v>
       </c>
       <c r="D356" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E356">
         <v>10</v>
@@ -6501,7 +6512,7 @@
         <v>12</v>
       </c>
       <c r="D357" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E357">
         <v>15</v>
@@ -6518,7 +6529,7 @@
         <v>12</v>
       </c>
       <c r="D358" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E358">
         <v>19</v>
@@ -6535,7 +6546,7 @@
         <v>12</v>
       </c>
       <c r="D359" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E359">
         <v>16</v>
@@ -6552,7 +6563,7 @@
         <v>12</v>
       </c>
       <c r="D360" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E360">
         <v>15</v>
@@ -6569,7 +6580,7 @@
         <v>12</v>
       </c>
       <c r="D361" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E361">
         <v>13</v>
@@ -6586,7 +6597,7 @@
         <v>12</v>
       </c>
       <c r="D362" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E362">
         <v>13</v>
@@ -6603,7 +6614,7 @@
         <v>12</v>
       </c>
       <c r="D363" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E363">
         <v>39</v>
@@ -6620,7 +6631,7 @@
         <v>12</v>
       </c>
       <c r="D364" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E364">
         <v>21</v>
@@ -6637,7 +6648,7 @@
         <v>12</v>
       </c>
       <c r="D365" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E365">
         <v>80</v>
@@ -6654,7 +6665,7 @@
         <v>12</v>
       </c>
       <c r="D366" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E366">
         <v>16</v>
@@ -6671,7 +6682,7 @@
         <v>12</v>
       </c>
       <c r="D367" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E367">
         <v>21</v>
@@ -6688,7 +6699,7 @@
         <v>12</v>
       </c>
       <c r="D368" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E368">
         <v>13</v>
@@ -6705,7 +6716,7 @@
         <v>12</v>
       </c>
       <c r="D369" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E369">
         <v>22</v>
@@ -6722,7 +6733,7 @@
         <v>12</v>
       </c>
       <c r="D370" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E370">
         <v>9</v>
@@ -6739,7 +6750,7 @@
         <v>12</v>
       </c>
       <c r="D371" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E371">
         <v>31</v>
@@ -6756,7 +6767,7 @@
         <v>12</v>
       </c>
       <c r="D372" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E372">
         <v>18</v>
@@ -6773,7 +6784,7 @@
         <v>12</v>
       </c>
       <c r="D373" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E373">
         <v>21</v>
@@ -6790,7 +6801,7 @@
         <v>12</v>
       </c>
       <c r="D374" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E374">
         <v>27</v>
@@ -6807,7 +6818,7 @@
         <v>12</v>
       </c>
       <c r="D375" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E375">
         <v>6</v>
@@ -6824,7 +6835,7 @@
         <v>12</v>
       </c>
       <c r="D376" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E376" t="s">
         <v>10</v>
@@ -6841,7 +6852,7 @@
         <v>12</v>
       </c>
       <c r="D377" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E377" t="s">
         <v>10</v>
@@ -6858,7 +6869,7 @@
         <v>12</v>
       </c>
       <c r="D378" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E378" t="s">
         <v>10</v>
@@ -6875,7 +6886,7 @@
         <v>12</v>
       </c>
       <c r="D379" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E379">
         <v>12</v>
@@ -6892,7 +6903,7 @@
         <v>12</v>
       </c>
       <c r="D380" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E380">
         <v>12</v>
@@ -6909,7 +6920,7 @@
         <v>12</v>
       </c>
       <c r="D381" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E381" t="s">
         <v>10</v>
@@ -6926,7 +6937,7 @@
         <v>12</v>
       </c>
       <c r="D382" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E382">
         <v>8</v>
@@ -6943,7 +6954,7 @@
         <v>12</v>
       </c>
       <c r="D383" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E383">
         <v>16</v>
@@ -6960,7 +6971,7 @@
         <v>9</v>
       </c>
       <c r="D384" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E384" t="s">
         <v>10</v>
@@ -6977,7 +6988,7 @@
         <v>9</v>
       </c>
       <c r="D385" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E385">
         <v>33</v>
@@ -6994,7 +7005,7 @@
         <v>9</v>
       </c>
       <c r="D386" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E386" t="s">
         <v>10</v>
@@ -7011,7 +7022,7 @@
         <v>9</v>
       </c>
       <c r="D387" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E387" t="s">
         <v>10</v>
@@ -7028,7 +7039,7 @@
         <v>9</v>
       </c>
       <c r="D388" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E388" t="s">
         <v>10</v>
@@ -7045,7 +7056,7 @@
         <v>9</v>
       </c>
       <c r="D389" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E389" t="s">
         <v>10</v>
@@ -7062,7 +7073,7 @@
         <v>9</v>
       </c>
       <c r="D390" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E390">
         <v>40</v>
@@ -7079,7 +7090,7 @@
         <v>9</v>
       </c>
       <c r="D391" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E391" t="s">
         <v>10</v>
@@ -7096,7 +7107,7 @@
         <v>9</v>
       </c>
       <c r="D392" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E392" t="s">
         <v>10</v>
@@ -7113,7 +7124,7 @@
         <v>9</v>
       </c>
       <c r="D393" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E393" t="s">
         <v>10</v>
@@ -7130,7 +7141,7 @@
         <v>9</v>
       </c>
       <c r="D394" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E394">
         <v>33</v>
@@ -7147,7 +7158,7 @@
         <v>9</v>
       </c>
       <c r="D395" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E395">
         <v>13</v>
@@ -7164,7 +7175,7 @@
         <v>9</v>
       </c>
       <c r="D396" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E396" t="s">
         <v>10</v>
@@ -7181,7 +7192,7 @@
         <v>9</v>
       </c>
       <c r="D397" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E397">
         <v>14</v>
@@ -7198,7 +7209,7 @@
         <v>9</v>
       </c>
       <c r="D398" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E398" t="s">
         <v>10</v>
@@ -7215,7 +7226,7 @@
         <v>9</v>
       </c>
       <c r="D399" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E399" t="s">
         <v>10</v>
@@ -7232,7 +7243,7 @@
         <v>9</v>
       </c>
       <c r="D400" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E400" t="s">
         <v>10</v>
@@ -7249,7 +7260,7 @@
         <v>9</v>
       </c>
       <c r="D401" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E401" t="s">
         <v>10</v>
@@ -7266,7 +7277,7 @@
         <v>9</v>
       </c>
       <c r="D402" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E402">
         <v>14</v>
@@ -7283,7 +7294,7 @@
         <v>9</v>
       </c>
       <c r="D403" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E403" t="s">
         <v>10</v>
@@ -7300,7 +7311,7 @@
         <v>9</v>
       </c>
       <c r="D404" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E404" t="s">
         <v>10</v>
@@ -7317,7 +7328,7 @@
         <v>9</v>
       </c>
       <c r="D405" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E405">
         <v>10</v>
@@ -7334,7 +7345,7 @@
         <v>9</v>
       </c>
       <c r="D406" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E406" t="s">
         <v>10</v>
@@ -7351,7 +7362,7 @@
         <v>9</v>
       </c>
       <c r="D407" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E407">
         <v>12</v>
@@ -7368,7 +7379,7 @@
         <v>12</v>
       </c>
       <c r="D408" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E408" t="s">
         <v>10</v>
@@ -7385,7 +7396,7 @@
         <v>12</v>
       </c>
       <c r="D409" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E409">
         <v>9</v>
@@ -7402,7 +7413,7 @@
         <v>12</v>
       </c>
       <c r="D410" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E410" t="s">
         <v>10</v>
@@ -7419,7 +7430,7 @@
         <v>12</v>
       </c>
       <c r="D411" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E411">
         <v>26</v>
@@ -7436,7 +7447,7 @@
         <v>12</v>
       </c>
       <c r="D412" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E412">
         <v>25</v>
@@ -7453,7 +7464,7 @@
         <v>12</v>
       </c>
       <c r="D413" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E413" t="s">
         <v>10</v>
@@ -7470,7 +7481,7 @@
         <v>9</v>
       </c>
       <c r="D414" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E414" t="s">
         <v>10</v>
@@ -7487,7 +7498,7 @@
         <v>9</v>
       </c>
       <c r="D415" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E415" t="s">
         <v>10</v>
@@ -7504,7 +7515,7 @@
         <v>9</v>
       </c>
       <c r="D416" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E416">
         <v>42</v>
@@ -7521,7 +7532,7 @@
         <v>9</v>
       </c>
       <c r="D417" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E417" t="s">
         <v>10</v>
@@ -7538,7 +7549,7 @@
         <v>12</v>
       </c>
       <c r="D418" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E418" t="s">
         <v>10</v>
@@ -7555,7 +7566,7 @@
         <v>9</v>
       </c>
       <c r="D419" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E419" t="s">
         <v>10</v>
@@ -7572,7 +7583,7 @@
         <v>9</v>
       </c>
       <c r="D420" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E420" t="s">
         <v>10</v>
@@ -7589,7 +7600,7 @@
         <v>12</v>
       </c>
       <c r="D421" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E421">
         <v>34</v>
@@ -7606,7 +7617,7 @@
         <v>12</v>
       </c>
       <c r="D422" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E422">
         <v>17</v>
@@ -7623,7 +7634,7 @@
         <v>12</v>
       </c>
       <c r="D423" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E423">
         <v>20</v>
@@ -7640,7 +7651,7 @@
         <v>12</v>
       </c>
       <c r="D424" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E424">
         <v>45</v>
@@ -7657,7 +7668,7 @@
         <v>12</v>
       </c>
       <c r="D425" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E425">
         <v>32</v>
@@ -7674,7 +7685,7 @@
         <v>12</v>
       </c>
       <c r="D426" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E426">
         <v>32</v>
@@ -7691,7 +7702,7 @@
         <v>12</v>
       </c>
       <c r="D427" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E427">
         <v>37</v>
@@ -7708,7 +7719,7 @@
         <v>12</v>
       </c>
       <c r="D428" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E428">
         <v>38</v>
@@ -7725,7 +7736,7 @@
         <v>12</v>
       </c>
       <c r="D429" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E429">
         <v>43</v>
@@ -7742,7 +7753,7 @@
         <v>12</v>
       </c>
       <c r="D430" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E430">
         <v>34</v>
@@ -7759,7 +7770,7 @@
         <v>12</v>
       </c>
       <c r="D431" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E431">
         <v>60</v>
@@ -7776,7 +7787,7 @@
         <v>12</v>
       </c>
       <c r="D432" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E432">
         <v>33</v>
@@ -7793,7 +7804,7 @@
         <v>12</v>
       </c>
       <c r="D433" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E433">
         <v>44</v>
@@ -7810,7 +7821,7 @@
         <v>9</v>
       </c>
       <c r="D434" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E434">
         <v>26</v>
@@ -7827,7 +7838,7 @@
         <v>9</v>
       </c>
       <c r="D435" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E435">
         <v>43</v>
@@ -7844,7 +7855,7 @@
         <v>9</v>
       </c>
       <c r="D436" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E436">
         <v>11</v>
@@ -7861,7 +7872,7 @@
         <v>9</v>
       </c>
       <c r="D437" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E437">
         <v>26</v>
@@ -7878,7 +7889,7 @@
         <v>9</v>
       </c>
       <c r="D438" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E438">
         <v>20</v>
@@ -7895,7 +7906,7 @@
         <v>9</v>
       </c>
       <c r="D439" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E439">
         <v>16</v>
@@ -7912,7 +7923,7 @@
         <v>9</v>
       </c>
       <c r="D440" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E440">
         <v>33</v>
@@ -7929,7 +7940,7 @@
         <v>9</v>
       </c>
       <c r="D441" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E441">
         <v>15</v>
@@ -7946,7 +7957,7 @@
         <v>9</v>
       </c>
       <c r="D442" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E442">
         <v>24</v>
@@ -7963,7 +7974,7 @@
         <v>9</v>
       </c>
       <c r="D443" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E443" t="s">
         <v>10</v>
